--- a/Metrics_SL/FeatureList.xlsx
+++ b/Metrics_SL/FeatureList.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b676d0f42deb42af/PostDoc UCLA/1 Post Doc UCLA/Matlab analysis/MACKtrack_SL/Metrics_SL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlue\OneDrive\PostDoc UCLA\1 Post Doc UCLA\Matlab analysis\MACKtrack_SL\Metrics_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="114_{1A501FDB-FBCA-4915-BED4-0CDF9D286697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30898092-BAB7-4908-91A0-9C8680ADF9FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74767E10-652E-43A0-BBF6-21E39FD7BFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureList" sheetId="1" r:id="rId1"/>
-    <sheet name="PeakStats" sheetId="2" r:id="rId2"/>
-    <sheet name="SignalStats" sheetId="3" r:id="rId3"/>
-    <sheet name="ForClassifier" sheetId="4" r:id="rId4"/>
+    <sheet name="ViolMetTableKTR" sheetId="5" r:id="rId2"/>
+    <sheet name="ViolMetTableNFkB" sheetId="6" r:id="rId3"/>
+    <sheet name="PeakStats" sheetId="2" r:id="rId4"/>
+    <sheet name="SignalStats" sheetId="3" r:id="rId5"/>
+    <sheet name="ForClassifier" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="165">
   <si>
     <t>Feature Name</t>
   </si>
@@ -674,8 +676,8 @@
       <xdr:row>138</xdr:row>
       <xdr:rowOff>31500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -694,7 +696,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -1455,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E642C0-5C54-4916-8E47-452EF457545E}">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,10 +3202,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89338D9F-55EC-4FE0-B42E-A298036D8B23}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A5200F-9521-4BFF-99DB-5E18BED43D86}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F54B7C-C920-4751-8B32-6101EE326D3A}">
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3561,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F98517-2118-45FB-B1D3-9BD795E3E5B2}">
   <dimension ref="A1:A31"/>
   <sheetViews>
@@ -3732,7 +3876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F47CD03-1A32-4487-AE16-6FA45CD794BD}">
   <dimension ref="A1:C155"/>
   <sheetViews>

--- a/Metrics_SL/FeatureList.xlsx
+++ b/Metrics_SL/FeatureList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlue\OneDrive\PostDoc UCLA\1 Post Doc UCLA\Matlab analysis\MACKtrack_SL\Metrics_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74767E10-652E-43A0-BBF6-21E39FD7BFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304989F3-9382-4FD9-9E44-826425B3CA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="167">
   <si>
     <t>Feature Name</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>max_pos_integral_ktr</t>
+  </si>
+  <si>
+    <t>duration_ktr(:,3)</t>
+  </si>
+  <si>
+    <t>duration_nfkb(:,3)</t>
   </si>
 </sst>
 </file>
@@ -3203,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89338D9F-55EC-4FE0-B42E-A298036D8B23}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,6 +3272,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3273,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A5200F-9521-4BFF-99DB-5E18BED43D86}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,6 +3345,11 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics_SL/FeatureList.xlsx
+++ b/Metrics_SL/FeatureList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlue\OneDrive\PostDoc UCLA\1 Post Doc UCLA\Matlab analysis\MACKtrack_SL\Metrics_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304989F3-9382-4FD9-9E44-826425B3CA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A410B-26BC-489C-AB49-553A6AADA0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="167">
   <si>
     <t>Feature Name</t>
   </si>
@@ -535,10 +535,10 @@
     <t>max_pos_integral_ktr</t>
   </si>
   <si>
-    <t>duration_ktr(:,3)</t>
-  </si>
-  <si>
-    <t>duration_nfkb(:,3)</t>
+    <t>column Index</t>
+  </si>
+  <si>
+    <t>max_peak2trough_ktr</t>
   </si>
 </sst>
 </file>
@@ -3209,72 +3209,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89338D9F-55EC-4FE0-B42E-A298036D8B23}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3284,72 +3368,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A5200F-9521-4BFF-99DB-5E18BED43D86}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3361,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F54B7C-C920-4751-8B32-6101EE326D3A}">
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,7 +3893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F98517-2118-45FB-B1D3-9BD795E3E5B2}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Metrics_SL/FeatureList.xlsx
+++ b/Metrics_SL/FeatureList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b676d0f42deb42af/PostDoc UCLA/1 Post Doc UCLA/Matlab analysis/MACKtrack_SL/Metrics_SL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlue\OneDrive\PostDoc UCLA\1 Post Doc UCLA\Matlab analysis\MACKtrack_SL\Metrics_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="114_{FF047512-6B71-40A5-BE7C-EE26CDCEE8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C527810-75E5-4634-AAD1-A24FBF2667DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E859A-196C-4303-8B31-7152D428CEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F929B23-F458-4D8B-B78C-429BE10A0AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="FeatureList" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="173">
   <si>
     <t>Feature Name</t>
   </si>
@@ -1305,6 +1305,1576 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8D138E-3552-4D53-8D16-0FF8A8B30761}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36A5856-E094-47FF-B922-096DB9AEC9E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DD3452-4913-4C1B-B0E9-710FE8E0BB90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Ink 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CD0C9B-248D-4B9F-A423-07294EEE721E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD1722D-50A5-4F97-BBB9-A2C8CF2F5AAE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53094421-4130-4AF2-84B2-09E318290585}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B31A71-DFA6-422A-9A78-67AB73752EDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF262B3-1C92-461D-ADDC-EFA74D9CA174}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EF2653-B921-43DE-AFF6-5A9795E98159}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Ink 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93FC6D7-658A-47BD-B5C1-5C7278B94643}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Ink 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F04B64-6C4F-4C68-BCCA-B4BCEC61DACE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D81A6E-5073-4B79-8368-391870056E19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="Ink 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8FC36D-3B4A-4CAD-B99F-E9D6D296ECC2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7F553A-6826-4D7F-82EA-DD63DCD8C66B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Ink 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BE9F8F-6AD5-49E3-8706-3B962586E057}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACFDA87-5BEE-4478-A37E-AD981939AD11}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93060A2-BF67-4A97-9FA9-C024FCBEF942}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Ink 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4D1ABE-60DE-49BA-870E-BA4B63E239C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="30" name="Ink 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26CCB08-B7F4-4A22-9990-C0397235ABA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F5B80A-12A2-4BB4-8E44-790A9A8FD0CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D341654-151E-4A4E-BA0E-78C60CA3B24A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FE65B0-5159-44E4-95BC-C553B0367C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF19590-7E99-428D-AF44-6346F5EEFEDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE81EB8F-FDE0-4A1B-BE59-949C1F37025F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="297300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C75C5DD-972B-437B-8D9D-3724CA3E65CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="678300"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681AB3F9-391C-439F-97C1-CF493DD39D6F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="376560" y="868800"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="367560" y="479160"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4265,6 +5835,71 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1334520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1338840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FE28A3-AA87-4FE5-930C-DBBC68F59A07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1334520" y="29299140"/>
+            <a:ext cx="4320" cy="7200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCA7F8A-009F-4F51-9FA9-FF408ACA44F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1325520" y="28124640"/>
+              <a:ext cx="21960" cy="24840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6095,66 +7730,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91740</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="Ink 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E9F52F-2FD6-4DC6-B4E7-6BB5D7065F5D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4742400" y="472740"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Ink 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35585F1-12F4-4CB1-8A97-7C341E52EC95}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="466200" y="273240"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6170,7 +7745,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
               <a:extLst>
@@ -6224,7 +7799,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>106800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -6292,10 +7867,10 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07808C7-D56F-415C-9007-EBBD886F9B49}"/>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B583D0E-6F94-4F29-8B08-CFB33CB02EA8}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6352,10 +7927,10 @@
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="7" name="Ink 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B583D0E-6F94-4F29-8B08-CFB33CB02EA8}"/>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199354E6-8F9F-418A-80EC-909771B0A1ED}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -6404,493 +7979,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>106800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="8" name="Ink 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199354E6-8F9F-418A-80EC-909771B0A1ED}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Ink 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCC6E0F-E8C7-4BD2-99A0-E37B4D08F089}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Ink 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640D68B9-E1B1-4878-83F6-BB35F446DB18}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="11" name="Ink 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350D3F02-E75D-4657-B698-FDBDB4522C43}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="12" name="Ink 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DCA9D1-528B-4722-8D30-E3AF31AB09C6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="13" name="Ink 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715E2CE4-4954-488C-8153-FDFBD0FAB2F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="14" name="Ink 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E7C9FB-EA28-4CB6-9CED-C233226523BC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Ink 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2314C56F-FAA0-48D6-986D-78BA3980058D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
               <a:extLst>
@@ -6950,12 +8045,12 @@
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="17" name="Ink 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB58A17A-C06C-4E0B-8B83-9A928BAF9B02}"/>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F511F3DA-406E-4D3F-B464-0484334DCE94}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -7010,12 +8105,12 @@
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="18" name="Ink 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F511F3DA-406E-4D3F-B464-0484334DCE94}"/>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00EAAED-1930-4CD5-A9C8-2D2149551241}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -7064,493 +8159,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>106800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Ink 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00EAAED-1930-4CD5-A9C8-2D2149551241}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="20" name="Ink 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34ED66A-4DF0-49C4-9330-9D0A73CB4126}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="21" name="Ink 20">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F8A1AB-AA03-462A-B653-FF07A0C107E7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="22" name="Ink 21">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68FF8A2-26B0-4A6F-8BDC-C6B3D1FF5391}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="23" name="Ink 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F546B799-A89F-4D21-B683-047FE02D8A04}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="24" name="Ink 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61B6FC-2F86-4F67-885E-AB087BAAF617}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="25" name="Ink 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6153E3-7DB5-421D-92A9-06F2FCFF4743}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="26" name="Ink 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534A3650-4D42-422D-882E-85D15B52719A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Ink 26">
               <a:extLst>
@@ -7610,12 +8225,12 @@
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="28" name="Ink 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20338A83-AF02-4ABE-B4FA-31F491CFD4D5}"/>
+            <xdr14:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FEF086-7712-4A23-ACCA-4AA12918F349}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -7670,12 +8285,12 @@
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="29" name="Ink 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FEF086-7712-4A23-ACCA-4AA12918F349}"/>
+            <xdr14:cNvPr id="30" name="Ink 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8563BC79-8175-40DF-82F5-0151CA6F031D}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -7724,493 +8339,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>106800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="30" name="Ink 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8563BC79-8175-40DF-82F5-0151CA6F031D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="31" name="Ink 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EEE317-A6B7-4EB4-8B10-F70B0A10A4D8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="32" name="Ink 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7021A4F3-19D0-4D03-92CB-D840C3DA4EC0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="33" name="Ink 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C67DB1-B812-494C-9E5F-7426F4510FB9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="34" name="Ink 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3143B4C-24F1-4C96-83AB-F8AF18221E4C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="35" name="Ink 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955A145E-8B2E-4237-9446-33BFDD19D693}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="36" name="Ink 35">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30FA9D5-37A0-41EC-9FF8-96956F5EF766}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="37" name="Ink 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B499561-40A9-42F7-B7D2-75EF768DDDAA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Ink 37">
               <a:extLst>
@@ -8270,12 +8405,12 @@
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="39" name="Ink 38">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FF68B3-32D5-4931-AE01-C500CB33F685}"/>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFDD92A-C496-4551-AD3E-EECE07A894DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -8330,492 +8465,12 @@
     <xdr:ext cx="360" cy="360"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="40" name="Ink 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFDD92A-C496-4551-AD3E-EECE07A894DE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E25CDB-5F9C-47A5-A6BD-454240B552CF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="42" name="Ink 41">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB81F548-F908-485E-92E4-08DA39DF680B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="43" name="Ink 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3076C9-AB01-44BD-B444-37534AA69BD3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="44" name="Ink 43">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58EF814-A7D3-48CF-8645-7F29DEAFCF6D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="45" name="Ink 44">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404F216E-D450-4B5D-918B-B63CA0665968}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="46" name="Ink 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635A266D-D955-4EE3-B6C7-98EB1CCBFC3C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="47" name="Ink 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BE61D1-88FB-4B99-96C2-383F999FAA69}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="376560" y="297300"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C884FD41-3B89-4AC0-B380-8C4C1D636C7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="367560" y="479160"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="48" name="Ink 47">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC08AD8-E901-4240-AF41-D1DD5569159B}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -12033,14 +11688,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.103"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.366"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12060,14 +11715,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.108"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.367"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12087,14 +11742,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.112"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.368"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12114,14 +11769,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.116"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.369"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12141,14 +11796,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.658"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.370"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12168,14 +11823,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.664"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.348"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12195,7 +11850,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.669"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.349"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12222,7 +11877,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.675"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.350"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12249,7 +11904,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.682"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.351"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12276,7 +11931,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.688"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.352"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12330,7 +11985,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.695"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.353"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12357,7 +12012,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.701"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.354"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12384,7 +12039,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.706"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.355"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12411,7 +12066,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.712"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.356"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12438,7 +12093,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.718"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.357"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12465,7 +12120,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.146"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.358"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12492,7 +12147,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.149"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.359"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12519,7 +12174,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.152"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.360"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12546,7 +12201,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.157"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-01T22:06:44.552"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12573,7 +12228,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.162"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.074"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12600,14 +12255,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.465"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.423"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12627,7 +12282,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.166"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.082"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12654,7 +12309,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.171"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.087"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12681,7 +12336,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.176"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.658"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12708,7 +12363,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.181"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.669"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12735,7 +12390,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.184"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:56.675"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12762,7 +12417,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.189"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.146"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12789,7 +12444,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.862"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.152"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12816,7 +12471,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.868"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:55:29.157"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12843,7 +12498,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.873"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.862"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12870,7 +12525,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.879"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.873"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12897,14 +12552,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.492"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.424"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 27 13004,'0'0'4420,"0"0"-4420,0 0-64,0 0 0,0 0-64,0 0-576,-14-21-1571,38 15-2689</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12924,7 +12579,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.886"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.879"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -12951,14 +12606,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.890"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.692"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12978,14 +12633,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.896"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.693"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">61 4 8936,'0'0'1570,"0"0"-1570,0 0-96,0 0 96,0 0 0,0 0 0,-60-3-1698,60 3-2113,0 15-674</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13005,7 +12660,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.903"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.694"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13032,7 +12687,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.908"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.695"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13059,7 +12714,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.914"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.696"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13086,7 +12741,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T02:02:20.920"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.697"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13113,14 +12768,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.692"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.698"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13140,14 +12795,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.693"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.699"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">61 4 8936,'0'0'1570,"0"0"-1570,0 0-96,0 0 96,0 0 0,0 0 0,-60-3-1698,60 3-2113,0 15-674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13167,7 +12822,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.694"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.700"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13194,14 +12849,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.493"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.425"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13221,7 +12876,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.695"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.701"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13248,7 +12903,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.696"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.702"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13275,7 +12930,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.697"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.703"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13302,7 +12957,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.698"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.704"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13329,7 +12984,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.699"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.705"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13356,7 +13011,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.700"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.706"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13383,7 +13038,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.701"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.707"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13410,7 +13065,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.702"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.708"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13437,7 +13092,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.703"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.709"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13464,7 +13119,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.704"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.710"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13491,14 +13146,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.494"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.426"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13518,7 +13173,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.705"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.711"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13545,7 +13200,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.706"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.712"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13572,7 +13227,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.707"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.713"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13599,7 +13254,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.708"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.714"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13626,7 +13281,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.709"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.715"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13653,7 +13308,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.710"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.716"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13680,7 +13335,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.711"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.717"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13707,7 +13362,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.712"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.718"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13734,7 +13389,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.713"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.719"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13761,7 +13416,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.714"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.720"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13788,14 +13443,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.495"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.427"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13815,7 +13470,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.715"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.721"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13842,7 +13497,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.716"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.722"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13869,7 +13524,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.717"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.723"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13896,7 +13551,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.718"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.724"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13923,7 +13578,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.719"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.725"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13950,7 +13605,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.720"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.726"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13977,7 +13632,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.721"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.727"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14004,7 +13659,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.722"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.728"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14031,7 +13686,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.723"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.729"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14058,7 +13713,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.724"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.730"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14085,14 +13740,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.496"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.428"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14112,7 +13767,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.725"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.731"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14139,7 +13794,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.726"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.732"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14166,7 +13821,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.727"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.733"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14193,7 +13848,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.728"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.734"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14220,7 +13875,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.729"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.735"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14247,7 +13902,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.730"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.736"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14274,7 +13929,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.731"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.737"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14301,7 +13956,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.732"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.738"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -14328,195 +13983,6 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.733"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink179.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.734"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.497"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink180.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.735"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink181.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.736"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink182.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.737"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink183.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:34.738"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink184.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2020-06-09T03:33:13.738"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -14528,7 +13994,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink179.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -14555,7 +14021,34 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.429"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink180.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -14582,7 +14075,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink187.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink181.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -14625,14 +14118,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.498"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.430"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14679,14 +14172,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.499"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.431"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14706,14 +14199,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.500"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.432"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14733,14 +14226,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.501"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.433"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14760,14 +14253,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.502"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.434"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14787,14 +14280,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.503"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:42.435"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14814,14 +14307,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.504"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.027"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14841,14 +14334,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.505"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.028"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14868,14 +14361,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.506"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.029"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14895,14 +14388,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.507"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.030"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14922,14 +14415,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.508"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.031"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14976,14 +14469,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.509"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.032"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15003,14 +14496,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.510"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.033"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15030,14 +14523,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.511"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.034"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15057,14 +14550,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.512"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.035"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15084,14 +14577,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.513"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.036"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15111,14 +14604,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.514"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.037"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15138,14 +14631,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.515"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.038"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15165,14 +14658,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.516"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-14T21:58:44.039"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15192,7 +14685,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.517"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.465"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15219,14 +14712,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.518"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.492"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 27 13004,'0'0'4420,"0"0"-4420,0 0-64,0 0 0,0 0-64,0 0-576,-14-21-1571,38 15-2689</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15273,7 +14766,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.519"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.493"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15300,7 +14793,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.520"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.494"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15327,7 +14820,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.521"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.495"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15354,7 +14847,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.522"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.496"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15381,7 +14874,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.523"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.497"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15408,7 +14901,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.524"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.498"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15435,7 +14928,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.525"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.499"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15462,7 +14955,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.526"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.500"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15489,7 +14982,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.527"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.501"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15516,7 +15009,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.528"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.502"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15570,7 +15063,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.529"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.503"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15597,7 +15090,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.530"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.504"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15624,7 +15117,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.531"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.505"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15651,7 +15144,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.532"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.506"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15678,7 +15171,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.533"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.507"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15705,7 +15198,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.534"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.508"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15732,7 +15225,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.535"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.509"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15759,7 +15252,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.536"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.510"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15786,14 +15279,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.537"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.511"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1 5541,'0'0'609,"0"0"-577,0 0 224,0 0 769,0 0 0,0 0-545,-3 0-415,3 0-65,0 0-161,0 6-1056,0 9-288,0 6-1058,0 3-1024</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15813,7 +15306,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.538"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.512"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15867,14 +15360,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.539"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.513"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 1 545,'0'0'2081,"0"0"226,0 0-1154,0 0-449,0 0 610,-14 3-1,14-3-672,0 0-449,0 0-192,0 0-705,0 0-2914,0 0-962</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15894,14 +15387,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:33:39.778"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.514"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15921,14 +15414,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:35:21.812"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.515"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1 5541,'0'0'609,"0"0"-577,0 0 224,0 0 769,0 0 0,0 0-545,-3 0-415,3 0-65,0 0-161,0 6-1056,0 9-288,0 6-1058,0 3-1024</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15948,7 +15441,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:35:24.406"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.516"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -15975,14 +15468,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:37:37.985"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.517"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16002,14 +15495,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-01T22:03:51.338"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.518"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 1 545,'0'0'2081,"0"0"226,0 0-1154,0 0-449,0 0 610,-14 3-1,14-3-672,0 0-449,0 0-192,0 0-705,0 0-2914,0 0-962</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16029,7 +15522,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.359"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.519"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16056,7 +15549,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.360"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.520"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16083,7 +15576,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.361"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.521"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16110,7 +15603,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.362"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.522"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16164,7 +15657,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.363"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.523"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16191,7 +15684,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.364"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.524"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16218,7 +15711,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.365"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.525"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16245,7 +15738,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.366"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.526"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16272,7 +15765,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.367"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.527"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16299,7 +15792,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.368"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.528"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16326,7 +15819,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.369"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.529"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16353,7 +15846,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.370"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.530"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -16380,14 +15873,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.348"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.531"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16407,14 +15900,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.349"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.532"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16461,14 +15954,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.350"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.533"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16488,14 +15981,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.351"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.534"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16515,14 +16008,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.352"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.535"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16542,14 +16035,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.353"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.536"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16569,14 +16062,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.354"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.537"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1 5541,'0'0'609,"0"0"-577,0 0 224,0 0 769,0 0 0,0 0-545,-3 0-415,3 0-65,0 0-161,0 6-1056,0 9-288,0 6-1058,0 3-1024</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16596,14 +16089,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.355"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.538"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16623,14 +16116,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.356"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-07T00:32:09.539"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 1 545,'0'0'2081,"0"0"226,0 0-1154,0 0-449,0 0 610,-14 3-1,14-3-672,0 0-449,0 0-192,0 0-705,0 0-2914,0 0-962</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16650,14 +16143,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.357"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-22T22:24:22.982"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 1 5061,'0'0'96,"0"0"-96,0 0 32,0 0-32,0 0-64,0 0 0,0 0-353,-11 19-2401</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16677,14 +16170,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.358"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:33:39.778"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16704,14 +16197,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.359"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:35:21.812"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 1 5541,'0'0'609,"0"0"-577,0 0 224,0 0 769,0 0 0,0 0-545,-3 0-415,3 0-65,0 0-161,0 6-1056,0 9-288,0 6-1058,0 3-1024</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16758,14 +16251,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:51:05.360"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:35:24.406"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16785,14 +16278,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:38:00.550"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-06-30T03:37:37.985"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 4516,'0'0'1346,"0"0"-1346,0 0-1730,0 0-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16812,14 +16305,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-01T22:06:44.552"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-01T22:03:51.338"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14 1 545,'0'0'2081,"0"0"226,0 0-1154,0 0-449,0 0 610,-14 3-1,14-3-672,0 0-449,0 0-192,0 0-705,0 0-2914,0 0-962</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16839,14 +16332,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.074"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.359"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16866,14 +16359,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.077"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.360"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16893,14 +16386,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.082"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.361"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16920,14 +16413,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.087"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.362"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16947,14 +16440,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.090"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.363"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16974,14 +16467,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.093"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.364"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17001,14 +16494,14 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:41:09.098"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-02T01:50:58.365"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 6951,'0'0'864,"0"0"-864,0 0-864,0 0 703,0 0-2721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 0 4228,'0'0'96,"0"0"-96,0 0 96,0 0 224,0 0-95,-10 12-161,10-12-64,0 0 0,0 0-192,0 0-193,0 0-832,0 0-1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17311,8 +16804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E642C0-5C54-4916-8E47-452EF457545E}">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19057,10 +18550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89338D9F-55EC-4FE0-B42E-A298036D8B23}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19081,18 +18574,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -19103,7 +18596,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -19114,7 +18607,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -19125,89 +18618,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -19219,10 +18646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C07F4B-43D9-4397-A5A7-6DB7D90AA675}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19437,6 +18864,22 @@
       </c>
       <c r="C19" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20131,10 +19574,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A5200F-9521-4BFF-99DB-5E18BED43D86}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20155,18 +19598,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -20177,7 +19620,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -20188,7 +19631,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -20199,89 +19642,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
         <v>169</v>
       </c>
     </row>
